--- a/data/outputs/数学期刊(下)_altmetric/81Chinese Annals of Mathematics, Series B.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/81Chinese Annals of Mathematics, Series B.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE71"/>
+  <dimension ref="A1:CF71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1031,6 +1036,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1774,6 +1788,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2027,6 +2044,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2276,6 +2296,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2525,6 +2548,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2774,6 +2800,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3023,6 +3052,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3272,6 +3304,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3525,6 +3560,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3774,6 +3812,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4029,6 +4070,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4276,6 +4320,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4533,6 +4580,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4786,6 +4836,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5049,6 +5102,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5310,6 +5366,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5563,6 +5622,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5824,6 +5886,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6085,6 +6150,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6336,6 +6404,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6583,6 +6654,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6838,6 +6912,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7085,6 +7162,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7346,6 +7426,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7599,6 +7682,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7860,6 +7946,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8109,6 +8198,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8356,6 +8448,9 @@
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8599,6 +8694,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8848,6 +8946,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9093,6 +9194,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9346,6 +9450,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9595,6 +9702,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9848,6 +9958,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10097,6 +10210,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10350,6 +10466,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10595,6 +10714,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10844,6 +10966,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11093,6 +11218,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11344,6 +11472,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11593,6 +11724,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11842,6 +11976,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12091,6 +12228,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12340,6 +12480,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12589,6 +12732,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12838,6 +12984,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13087,6 +13236,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13336,6 +13488,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13585,6 +13740,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13838,6 +13996,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14087,6 +14248,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14336,6 +14500,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14585,6 +14752,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14834,6 +15004,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15079,6 +15252,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15328,6 +15504,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15577,6 +15756,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15826,6 +16008,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16071,6 +16256,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16320,6 +16508,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16565,6 +16756,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16810,6 +17004,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17055,6 +17252,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17304,6 +17504,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17553,6 +17756,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17802,6 +18008,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18047,6 +18256,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18300,6 +18512,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
